--- a/biology/Médecine/Directeur_des_soins_dans_la_fonction_publique_hospitalière_française/Directeur_des_soins_dans_la_fonction_publique_hospitalière_française.xlsx
+++ b/biology/Médecine/Directeur_des_soins_dans_la_fonction_publique_hospitalière_française/Directeur_des_soins_dans_la_fonction_publique_hospitalière_française.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Directeur_des_soins_dans_la_fonction_publique_hospitali%C3%A8re_fran%C3%A7aise</t>
+          <t>Directeur_des_soins_dans_la_fonction_publique_hospitalière_française</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le directeur des soins est un fonctionnaire de catégorie A de la fonction publique hospitalière. Il est assimilé[pas clair] aux deux corps de direction de la fonction publique hospitalière que constituent les directeurs d'hôpital et les directeurs d'établissement sanitaire, social et médico-social. Compte tenu de leur longue expérience et de leur formation de haut niveau, les directeurs des soins revendiquent l'alignement de leur statut sur celui des directeurs d'hôpitaux.
 Son statut est défini par le décret no  2002-550 du 19 avril 2002 modifié portant statut particulier du corps des Directeurs des soins de la fonction publique hospitalière.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Directeur_des_soins_dans_la_fonction_publique_hospitali%C3%A8re_fran%C3%A7aise</t>
+          <t>Directeur_des_soins_dans_la_fonction_publique_hospitalière_française</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Accès au corps des directeurs des soins</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le corps des cadres de santé régi par le décret n°2001-1375 du 31 décembre 2001 portant statut particulier du corps des cadres de santé de la fonction publique hospitalière et le corps des cadres de santé paramédicaux régi par le décret n° 2012-1466 du 26 décembre 2012 portant statut particulier du corps des cadres de santé paramédicaux de la fonction publique hospitalière, en activité, en détachement, en congé parental ou accomplissant le service national et comptant, au 1er janvier de l’année du concours, au moins cinq ans de services effectifs dans l’un ou l’autre de ces corps peuvent se présenter au concours interne sur épreuves d'accès au cycle de formation des élèves directeurs des soins, organisé par le Centre national de gestion.
 Les fonctionnaires et agents publics de l’Etat, des collectivités territoriales et de leurs établissements publics à caractère administratif, les militaires et les magistrats en activité, en détachement, en congé parental ou accomplissant le service national, ainsi que les candidats en fonctions dans une organisation internationale intergouvernementale ayant reçu une formation équivalente aux cadres de santé et aux cadres paramédicaux de santé et justifiant d’au moins de cinq ans de services publics effectifs peuvent également concourir.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Directeur_des_soins_dans_la_fonction_publique_hospitali%C3%A8re_fran%C3%A7aise</t>
+          <t>Directeur_des_soins_dans_la_fonction_publique_hospitalière_française</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,11 +565,13 @@
           <t>Métier</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce métier s'exerce soit dans un établissement de santé, soit dans un institut de formation paramédicale, soit dans une Agence régionale de santé (ARS) ou à la Direction générale de l'Offre de soins (DGOS).
 Au sein d'un hôpital ses fonctions sont variées puisque le directeur des soins peut être nommé soit coordonnateur général des soins, soit directeur des activités de soins ou des activités médicotechniques, soit coordonnateur général des instituts de formation, soit directeur d'un institut de formation, par le Directeur d'établissement.
-En qualité de coordonnateur général des soins, il est chargé de concevoir la politique de soins, de piloter sa mise en œuvre et d'évaluer les résultats. Il préside la Commission des soins infirmiers, de rééducation et médicotechniques[1], membre de l'équipe de direction, il est membre de droit du directoire[2] et assiste avec voix consultative à la CME au titre de Président de la CSIRMT. Dans certains établissements de grande taille, il peut être assisté par un ou plusieurs directeurs chargés des activités de soins ou des activités médicotechniques.
+En qualité de coordonnateur général des soins, il est chargé de concevoir la politique de soins, de piloter sa mise en œuvre et d'évaluer les résultats. Il préside la Commission des soins infirmiers, de rééducation et médicotechniques, membre de l'équipe de direction, il est membre de droit du directoire et assiste avec voix consultative à la CME au titre de Président de la CSIRMT. Dans certains établissements de grande taille, il peut être assisté par un ou plusieurs directeurs chargés des activités de soins ou des activités médicotechniques.
 En qualité de coordonnateur général des instituts de formation, il est chargé de concevoir le projet pédagogique, en piloter sa mise en œuvre et d'organiser l'enseignement, de l'évaluer. Il peut être assisté par un ou plusieurs directeurs d'institut de formation.    
 Dans une agence régionale de santé, il est en relation avec l'ensemble des professionnels et a pour mission de donner un avis et une contribution dans les domaines de la santé publique et de l'information des professionnels de santé au sein de la région. Il exerce des fonctions de conseiller technique régional ou pédagogique en soins.
 À la DGOS il exerce des activités de conseiller technique national ou de conseiller pédagogique national.
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Directeur_des_soins_dans_la_fonction_publique_hospitali%C3%A8re_fran%C3%A7aise</t>
+          <t>Directeur_des_soins_dans_la_fonction_publique_hospitalière_française</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le corps des directeurs des soins comprend deux grades :
 deuxième classe
@@ -605,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Directeur_des_soins_dans_la_fonction_publique_hospitali%C3%A8re_fran%C3%A7aise</t>
+          <t>Directeur_des_soins_dans_la_fonction_publique_hospitalière_française</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,7 +641,9 @@
           <t>Rémunération et avantages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le salaire comprend une partie fixe selon un barème de point d'indice qui s'établit en début de carrière à 26 k€ brut annuel jusqu'à 45 k€ brut au dernier échelon du dernier grade. Les directeurs des soins perçoivent une prime de fonctions et de résultats (PFR). S'ajoute une prime de responsabilité qui varie selon le poste et entre trois barèmes (2450 € à 4730 € annuel), et une prime annuelle calculée sur la base d'une note annuelle (entre 5 et 17 % du salaire brut annuel). En fonction de missions particulières un directeur des soins peut prétendre aussi à une bonification indiciaire (entre 30 et 45 points d'indice).
 En contrepartie d'astreintes administratives le directeur des soins est logé par l'établissement qui l'emploie. Il bénéficie d'une indemnité compensatrice si l'établissement ne dispose pas d'un parc immobilier.
@@ -637,7 +657,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Directeur_des_soins_dans_la_fonction_publique_hospitali%C3%A8re_fran%C3%A7aise</t>
+          <t>Directeur_des_soins_dans_la_fonction_publique_hospitalière_française</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -655,7 +675,9 @@
           <t>Textes de référence</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Loi no  83-634 du 13 juillet 1983 portant droits et obligations des fonctionnaires.
 Loi no  86-33 du 9 janvier 1986 portant dispositions statutaires relatives à la fonction publique hospitalière.
